--- a/02_Study_Selection/Exclusion_Log.xlsx
+++ b/02_Study_Selection/Exclusion_Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rao\Documents\Towards PHD Cyber Security and CNI\Proposals\Journal Submition paper\SLR 2026\SLR-Insider-Threat-Detection-ML-Supplement Alriyami Murthada - Final Copy\02_Study_Selection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rao\Documents\Towards PHD Cyber Security and CNI\Proposals\Journal Submition paper\SLR 2026\SLR-Insider-Threat-Detection-ML-Supplement Alriyami Murtadha - Final Copy\02_Study_Selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEE1A81-4507-4BF8-A365-89FC05E77E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A55BC2B-B9EB-4CEF-8845-E0EF1EAAD56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5F48124-729C-4F9E-BC95-8219210D1CA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5F48124-729C-4F9E-BC95-8219210D1CA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary Studies (Excluded n=1" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE5A906-36EF-4DFE-9724-C00510BE8CAB}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F7CF7D-F0B0-4EFA-AAA6-EE93F9101F65}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
